--- a/Admin/Excel/student.xlsx
+++ b/Admin/Excel/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Spoural-Management\Admin\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A787E7-E4B9-452E-A3A0-A2B0DF052DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E1D79-B929-444C-992E-2DC82AC63242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1895F876-9286-445F-BB0D-76BAF49FD122}"/>
   </bookViews>
@@ -291,7 +291,7 @@
     <t>student_name</t>
   </si>
   <si>
-    <t>department_id</t>
+    <t>dept_id</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>55</v>
       </c>
